--- a/hassan2.xlsx
+++ b/hassan2.xlsx
@@ -80,10 +80,10 @@
     <t>District</t>
   </si>
   <si>
-    <t>taluku</t>
-  </si>
-  <si>
-    <t>amount</t>
+    <t>Taluk</t>
+  </si>
+  <si>
+    <t>Amount</t>
   </si>
   <si>
     <t>Photos</t>
@@ -547,7 +547,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="[$-B00044B]0"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,6 +573,13 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1055,152 +1062,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1247,6 +1254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3060,7 +3068,7 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3125,19 +3133,19 @@
       <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="16" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="17" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="17" t="s">
         <v>18</v>
       </c>
     </row>
